--- a/задачи на 2 семестр/задачи 2.xlsx
+++ b/задачи на 2 семестр/задачи 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manan\Downloads\задачи на 2 семестр\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/233ff03b8280f316/Рабочий стол/Practice-dev/задачи на 2 семестр/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFF1BCF-9A27-48B2-AF20-A9E9B2EACA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{EBFF1BCF-9A27-48B2-AF20-A9E9B2EACA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A1017A-03A4-43AE-8AA2-FB565B31DE2F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Начальное условие задачи</t>
   </si>
@@ -39,49 +39,19 @@
     <t>Теги</t>
   </si>
   <si>
-    <t xml:space="preserve">Входные данные:                                                            Выходные данные: </t>
-  </si>
-  <si>
     <t>Программа должна переводить число, введенное с клавиатуры в метрах, в километры.</t>
   </si>
   <si>
-    <t xml:space="preserve">Пользователь вводит два числа. Вывести их сумму, произведение, разность и среднее арифметическое. </t>
-  </si>
-  <si>
     <t>Дано четырехзначное число. Вывести на экран  в обратном порядке цифры из которых это число состоит. </t>
   </si>
   <si>
-    <t>5678 - 8765</t>
-  </si>
-  <si>
-    <t>Пользователь вводит сумму депозита и количество месяцев хранения денег в банке. Необходимо провести расчет и показать на экран прибыль с депозита в месяц,  за весь срок депозита, и общую сумму к выплате в конце срока.  Формула  расчета  процентов  в  месяц    –  СуммаДепозита * (ПроцентнаяСтавка / 100)  / ДнейВГоду * ДнейВМесяце. Процентная ставка - 5%.</t>
-  </si>
-  <si>
     <t>Даны значения двух моментов времени, принадлежащих одним и тем же суткам: часы, минуты и секунды для каждого из моментов времени. Известно, что второй момент времени наступил не раньше первого. Определите, сколько секунд прошло между двумя моментами времени.</t>
   </si>
   <si>
-    <t>Электронные часы показывают время в формате h:mm:ss (от 0:00:00 до 23:59:59), то есть сначала записывается количество часов, потом обязательно двузначное количество минут, затем обязательно двузначное количество секунд. Количество минут и секунд при необходимости дополняются до двузначного числа нулями. С начала суток прошло N секунд. Выведите, что покажут часы.</t>
-  </si>
-  <si>
-    <t>129700  - 12:01:40</t>
-  </si>
-  <si>
-    <t>Даны три целых числа. Найдите наибольшее из них (программа должна вывести ровно одно целое число). Под наибольшим в этой задаче понимается число, которое не меньше, чем любое другое.</t>
-  </si>
-  <si>
-    <t>Даны три натуральных числа A, B, C. Определите, существует ли треугольник с такими сторонами. Если треугольник существует, выведите строку YES, иначе выведите строку NO.</t>
-  </si>
-  <si>
-    <t>Даны три числа. Упорядочите их в порядке неубывания.</t>
-  </si>
-  <si>
     <t>Определите наименьшее расстояние между двумя локальными максимумами последовательности натуральных чисел, завершающейся числом 0. Если в последовательности нет двух локальных максимумов, выведите число 0.</t>
   </si>
   <si>
     <t>Даны действительные коэффициенты a, b, c. Решите уравнение ax2 + bx + c = 0 и выведите все его корни.Если данное уравнение не имеет корней, выведите число 0. Если уравнение имеет один корень, выведите число 1, а затем этот корень. Если уравнение имеет два корня, выведите число 2, а затем два корня в порядке возрастания. Если уравнение имеет бесконечно много корней, выведите число 3.</t>
-  </si>
-  <si>
-    <t>Определите среднее значение всех элементов последовательности, завершающейся числом 0.</t>
   </si>
   <si>
     <t>Дан массив. Выведите те его элементы, которые встречаются в массиве только один раз. Элементы нужно выводить в том порядке, в котором они встречаются в списке.</t>
@@ -94,11 +64,25 @@
     <t>Циклически сдвиньте элементы списка вправо (A[0] переходит на место A[1], A[1] на место A[2], ..., последний элемент переходит на место A[0]).</t>
   </si>
   <si>
-    <t>Даны числа n и m. Заполните массив размером n × m в шахматном порядке: клетки одного цвета заполнены нулями, а другого цвета - заполнены числами натурального ряда сверху вниз, слева направо. В левом верхнем углу записано число 1.</t>
-  </si>
-  <si>
-    <t>Напишите функцию fib(n), которая по данному целому положительному n возвращает n-e число Фибоначчи. В этой задаче нельзя использовать циклы - используйте рекурсию.
-Первое и второе числа Фибоначчи равны 1, а каждое следующее равно сумме двух предыдущих.</t>
+    <t xml:space="preserve">Входные данные:
+700
+Выходные данные:
+0.7 </t>
+  </si>
+  <si>
+    <t>С++, сложность F, 2 семестр, типы данных</t>
+  </si>
+  <si>
+    <t>Входные данные:
+5693
+Выходные данные:
+3965</t>
+  </si>
+  <si>
+    <t>Входные данные:
+3 4 5 1 6 2 1 3 5 0
+Выходные данные:
+1</t>
   </si>
 </sst>
 </file>
@@ -474,21 +458,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.28515625" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.26953125" customWidth="1"/>
+    <col min="2" max="2" width="58.26953125" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,339 +486,269 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+    <row r="41" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
